--- a/analysis/participant_extractedmetrics/participant260.xlsx
+++ b/analysis/participant_extractedmetrics/participant260.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="66">
   <si>
     <t/>
   </si>
@@ -159,6 +159,9 @@
     <t xml:space="preserve">pre gem </t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>arg</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
   </si>
   <si>
     <t>pre gem</t>
+  </si>
+  <si>
+    <t>pos</t>
   </si>
   <si>
     <t>conmdstat2</t>
@@ -211,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -222,6 +228,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,12 +249,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2422,7 +2442,926 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>126.0</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S25" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>88.0</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="4">
+        <v>4871.04</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1034.48</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="4">
+        <v>350.36</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>34585.27</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S26" s="4">
+        <v>1284.71</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>684.12</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>483.87</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>22423.98</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="4">
+        <v>3.94</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.28</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>27.95</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>18.12</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="4">
+        <v>405.92</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="4">
+        <v>258.62</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" s="4">
+        <v>350.36</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>274.49</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" s="4">
+        <v>214.12</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>228.04</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>483.87</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>254.82</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="4">
+        <v>166.82</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" s="4">
+        <v>350.36</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" s="4">
+        <v>350.36</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>133.49</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S29" s="4">
+        <v>350.36</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>483.83</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>483.87</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>200.25</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2442,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2454,28 +3393,28 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>28</v>
@@ -2933,7 +3872,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -2941,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -2953,28 +3892,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>28</v>
@@ -3430,7 +4369,646 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="4">
+        <v>123.0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2360.8</v>
+      </c>
+      <c r="E26" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="4">
+        <v>35234.67</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="4">
+        <v>20153.75</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2.58</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="4">
+        <v>38.55</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="4">
+        <v>22.05</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="4">
+        <v>472.16</v>
+      </c>
+      <c r="E28" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="4">
+        <v>286.46</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" s="4">
+        <v>265.18</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1234.56</v>
+      </c>
+      <c r="E29" s="4">
+        <v>183.5</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="4">
+        <v>250.16</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" s="4">
+        <v>216.86</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3477,43 +5055,43 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>28</v>
@@ -3522,7 +5100,7 @@
         <v>29</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>32</v>
@@ -3542,6 +5120,13 @@
       <c r="AF1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -3638,6 +5223,13 @@
         <v>0</v>
       </c>
       <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -3736,6 +5328,13 @@
       <c r="AF3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -3834,6 +5433,13 @@
       <c r="AF4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -3932,6 +5538,13 @@
       <c r="AF5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -4030,6 +5643,13 @@
       <c r="AF6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -4128,6 +5748,13 @@
       <c r="AF7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -4226,6 +5853,13 @@
       <c r="AF8" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -4264,43 +5898,43 @@
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>28</v>
@@ -4309,7 +5943,7 @@
         <v>29</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>32</v>
@@ -4329,6 +5963,13 @@
       <c r="AF12" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -4425,6 +6066,13 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -4523,6 +6171,13 @@
       <c r="AF14" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -4621,6 +6276,13 @@
       <c r="AF15" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -4719,6 +6381,13 @@
       <c r="AF16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -4817,6 +6486,13 @@
       <c r="AF17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -4915,6 +6591,13 @@
       <c r="AF18" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -5013,8 +6696,822 @@
       <c r="AF19" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>119.0</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="4">
+        <v>350.37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="4">
+        <v>9659.85</v>
+      </c>
+      <c r="I27" s="4">
+        <v>4354.63</v>
+      </c>
+      <c r="J27" s="4">
+        <v>517.86</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1084.47</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1518.38</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1251.6</v>
+      </c>
+      <c r="N27" s="4">
+        <v>567.43</v>
+      </c>
+      <c r="O27" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="P27" s="4">
+        <v>35856.17</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" s="4">
+        <v>450.51</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27" s="4">
+        <v>517.86</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>10454.61</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>517.86</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="4">
+        <v>10.54</v>
+      </c>
+      <c r="I28" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.57</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1.37</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="P28" s="4">
+        <v>39.13</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0.57</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>11.41</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>0.57</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="4">
+        <v>350.37</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="4">
+        <v>357.77</v>
+      </c>
+      <c r="I29" s="4">
+        <v>290.31</v>
+      </c>
+      <c r="J29" s="4">
+        <v>517.86</v>
+      </c>
+      <c r="K29" s="4">
+        <v>216.89</v>
+      </c>
+      <c r="L29" s="4">
+        <v>253.06</v>
+      </c>
+      <c r="M29" s="4">
+        <v>312.9</v>
+      </c>
+      <c r="N29" s="4">
+        <v>283.72</v>
+      </c>
+      <c r="O29" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="P29" s="4">
+        <v>301.31</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T29" s="4">
+        <v>225.25</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W29" s="4">
+        <v>517.86</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>254.99</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>517.86</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="4">
+        <v>350.37</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="4">
+        <v>233.62</v>
+      </c>
+      <c r="I30" s="4">
+        <v>233.75</v>
+      </c>
+      <c r="J30" s="4">
+        <v>517.86</v>
+      </c>
+      <c r="K30" s="4">
+        <v>333.69</v>
+      </c>
+      <c r="L30" s="4">
+        <v>233.75</v>
+      </c>
+      <c r="M30" s="4">
+        <v>283.62</v>
+      </c>
+      <c r="N30" s="4">
+        <v>233.75</v>
+      </c>
+      <c r="O30" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="P30" s="4">
+        <v>183.56</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30" s="4">
+        <v>166.84</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W30" s="4">
+        <v>517.86</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>250.18</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>517.86</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>